--- a/exp6所需的材料/exp6_truthtable.xlsx
+++ b/exp6所需的材料/exp6_truthtable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1Learn\24Summer\Lxb\StarryCPU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1Learn\24Summer\Lxb\StarryCPU\exp6所需的材料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC420FA-29EF-4085-B0A3-EF6B0FDFF5D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06648A7F-252A-4F71-9EA7-7DAB1729DA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -675,10 +675,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,9 +963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L19" sqref="L19"/>
+      <selection pane="topRight" activeCell="N23" sqref="N23:N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1319,7 +1319,7 @@
       <c r="E11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>38</v>
       </c>
       <c r="G11" s="11" t="s">
@@ -1355,7 +1355,7 @@
       <c r="E12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="11" t="s">
         <v>39</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="K19" s="11">
         <v>1</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <v>1</v>
       </c>
       <c r="M19" s="11"/>
